--- a/05-Algèbre Booléen/AssociationPortes_Tableur.xlsx
+++ b/05-Algèbre Booléen/AssociationPortes_Tableur.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Documents\NSI\05- algèbre Booléen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Documents\NSI\05-Algèbre Booléen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="314" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="31">
   <si>
     <t>&amp;</t>
   </si>
@@ -113,6 +113,15 @@
   </si>
   <si>
     <t>NON OU - Exclusif</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>=1</t>
+  </si>
+  <si>
+    <t>C+1</t>
   </si>
 </sst>
 </file>
@@ -174,12 +183,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -334,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -373,17 +388,66 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -696,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,11 +771,11 @@
     <col min="3" max="3" width="8.7109375" style="10" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" customWidth="1"/>
     <col min="5" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
+    <col min="12" max="12" width="3" customWidth="1"/>
     <col min="13" max="13" width="8.7109375" customWidth="1"/>
     <col min="14" max="15" width="10.7109375" customWidth="1"/>
     <col min="16" max="16" width="2.7109375" customWidth="1"/>
@@ -733,7 +797,7 @@
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="1"/>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="12" t="b">
@@ -774,11 +838,11 @@
       </c>
       <c r="G6" s="24"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="22" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="25" t="s">
+      <c r="O6" s="22" t="s">
         <v>0</v>
       </c>
       <c r="R6" s="18" t="b">
@@ -813,7 +877,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="22" t="s">
         <v>0</v>
       </c>
       <c r="I9" s="7"/>
@@ -932,10 +996,10 @@
       <c r="C29" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="25">
-        <v>1</v>
-      </c>
-      <c r="O29" s="25">
+      <c r="G29" s="22">
+        <v>1</v>
+      </c>
+      <c r="O29" s="22">
         <v>1</v>
       </c>
       <c r="S29" s="13" t="s">
@@ -1026,13 +1090,13 @@
       <c r="F38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="G38" s="22" t="s">
         <v>0</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O38" s="25" t="s">
+      <c r="O38" s="22" t="s">
         <v>0</v>
       </c>
       <c r="S38" s="14">
@@ -1136,13 +1200,13 @@
       <c r="F47" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G47" s="25" t="s">
         <v>17</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O47" s="22" t="s">
+      <c r="O47" s="25" t="s">
         <v>17</v>
       </c>
       <c r="S47" s="13" t="s">
@@ -1264,13 +1328,13 @@
       <c r="F56" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G56" s="22" t="s">
+      <c r="G56" s="25" t="s">
         <v>25</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O56" s="25" t="s">
+      <c r="O56" s="22" t="s">
         <v>25</v>
       </c>
       <c r="S56" s="13" t="s">
@@ -1401,38 +1465,551 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:H12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="10"/>
+    <col min="2" max="2" width="11.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="31"/>
+    <col min="5" max="8" width="11.42578125" style="10"/>
+    <col min="9" max="9" width="3" style="10" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="10"/>
+    <col min="11" max="11" width="11.42578125" style="36"/>
+    <col min="12" max="12" width="4.28515625" style="10" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="10" t="b">
+        <f>_xlfn.XOR(B3,B5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="33"/>
+      <c r="E4" s="26"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="38"/>
+      <c r="N5" s="14">
+        <v>0</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0</v>
+      </c>
+      <c r="P5" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D6" s="35"/>
+      <c r="E6" s="27"/>
+      <c r="H6" s="39"/>
+      <c r="N6" s="14">
+        <v>1</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0</v>
+      </c>
+      <c r="P6" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D7" s="35"/>
+      <c r="E7" s="27"/>
+      <c r="N7" s="14">
+        <v>0</v>
+      </c>
+      <c r="O7" s="14">
+        <v>1</v>
+      </c>
+      <c r="P7" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D8" s="35"/>
+      <c r="E8" s="27"/>
+      <c r="N8" s="14">
+        <v>1</v>
+      </c>
+      <c r="O8" s="14">
+        <v>1</v>
+      </c>
+      <c r="P8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D9" s="35"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D10" s="35"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D11" s="35"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H12" s="24"/>
+      <c r="J12" s="10" t="b">
+        <f>AND(B3,B5)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="H9:H12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="4.28515625" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="3" customWidth="1"/>
+    <col min="19" max="19" width="3" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="12"/>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K4" s="21"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="38"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="M6" s="39"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="12"/>
+      <c r="D10" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="41"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="7"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="33"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12"/>
+      <c r="D12" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="38"/>
+      <c r="M12" s="39"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="38"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D13" s="35"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="39"/>
+      <c r="P13" s="7"/>
+      <c r="R13" s="39"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D14" s="35"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D15" s="35"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D16" s="35"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D17" s="35"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="35"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="31"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="24"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="I22" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="I23" s="14">
+        <v>0</v>
+      </c>
+      <c r="J23" s="14">
+        <v>0</v>
+      </c>
+      <c r="K23" s="14">
+        <v>0</v>
+      </c>
+      <c r="L23" s="14">
+        <v>0</v>
+      </c>
+      <c r="M23" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="I24" s="14">
+        <v>0</v>
+      </c>
+      <c r="J24" s="14">
+        <v>0</v>
+      </c>
+      <c r="K24" s="14">
+        <v>1</v>
+      </c>
+      <c r="L24" s="14">
+        <v>0</v>
+      </c>
+      <c r="M24" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="I25" s="14">
+        <v>0</v>
+      </c>
+      <c r="J25" s="14">
+        <v>1</v>
+      </c>
+      <c r="K25" s="14">
+        <v>0</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+      <c r="M25" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="I26" s="14">
+        <v>0</v>
+      </c>
+      <c r="J26" s="14">
+        <v>1</v>
+      </c>
+      <c r="K26" s="14">
+        <v>1</v>
+      </c>
+      <c r="L26" s="14">
+        <v>1</v>
+      </c>
+      <c r="M26" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="I27" s="14">
+        <v>1</v>
+      </c>
+      <c r="J27" s="14">
+        <v>0</v>
+      </c>
+      <c r="K27" s="14">
+        <v>0</v>
+      </c>
+      <c r="L27" s="14">
+        <v>0</v>
+      </c>
+      <c r="M27" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="I28" s="14">
+        <v>1</v>
+      </c>
+      <c r="J28" s="14">
+        <v>0</v>
+      </c>
+      <c r="K28" s="14">
+        <v>1</v>
+      </c>
+      <c r="L28" s="14">
+        <v>1</v>
+      </c>
+      <c r="M28" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="I29" s="14">
+        <v>1</v>
+      </c>
+      <c r="J29" s="14">
+        <v>1</v>
+      </c>
+      <c r="K29" s="14">
+        <v>0</v>
+      </c>
+      <c r="L29" s="14">
+        <v>1</v>
+      </c>
+      <c r="M29" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="I30" s="14">
+        <v>1</v>
+      </c>
+      <c r="J30" s="14">
+        <v>1</v>
+      </c>
+      <c r="K30" s="14">
+        <v>1</v>
+      </c>
+      <c r="L30" s="14">
+        <v>1</v>
+      </c>
+      <c r="M30" s="14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="R10:R13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100671CBCCFB7731E4785D5AA71B51B616A" ma:contentTypeVersion="5" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="193fcf9a12f7cc4dce20ffba6032df27">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3f40544a-f0f7-4bd1-b515-cdc6b7379761" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c546aec72b3f09d6e56033e7a9ac2799" ns2:_="">
     <xsd:import namespace="3f40544a-f0f7-4bd1-b515-cdc6b7379761"/>
@@ -1582,6 +2159,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1589,14 +2175,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC661B92-2140-46AB-8251-C8E3C6C0774F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E6A928E-5CA4-40E5-8912-5026DC6A7CFA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1614,6 +2192,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC661B92-2140-46AB-8251-C8E3C6C0774F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EB0E5DB-E3E7-4347-8AC9-1AEEA935B45B}">
   <ds:schemaRefs>
